--- a/data/trans_dic/IP18A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 28,93</t>
+          <t>14,2; 28,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 25,45</t>
+          <t>11,13; 25,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 28,71</t>
+          <t>11,46; 28,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,72</t>
+          <t>0,0; 31,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 26,13</t>
+          <t>11,16; 25,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 31,19</t>
+          <t>16,16; 30,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 29,82</t>
+          <t>13,0; 30,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,38</t>
+          <t>0,0; 48,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 24,57</t>
+          <t>14,62; 24,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 25,69</t>
+          <t>15,17; 25,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 26,22</t>
+          <t>14,11; 26,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 26,03</t>
+          <t>2,45; 26,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 22,01</t>
+          <t>15,89; 22,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,36</t>
+          <t>14,73; 20,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 22,81</t>
+          <t>16,36; 22,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 30,78</t>
+          <t>15,67; 30,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 26,09</t>
+          <t>19,22; 26,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 25,59</t>
+          <t>18,84; 25,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,58</t>
+          <t>14,64; 20,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 34,36</t>
+          <t>15,38; 34,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 22,98</t>
+          <t>18,16; 22,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 21,86</t>
+          <t>17,64; 21,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 20,6</t>
+          <t>16,41; 20,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 28,94</t>
+          <t>17,4; 28,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 30,29</t>
+          <t>18,88; 31,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 29,7</t>
+          <t>18,51; 29,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,37; 25,23</t>
+          <t>15,39; 25,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 31,58</t>
+          <t>8,49; 31,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 33,27</t>
+          <t>21,65; 33,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 23,36</t>
+          <t>12,59; 22,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 28,76</t>
+          <t>18,2; 29,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 23,67</t>
+          <t>4,37; 24,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 30,33</t>
+          <t>22,43; 30,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 24,76</t>
+          <t>17,11; 24,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,71</t>
+          <t>18,49; 25,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 22,49</t>
+          <t>8,19; 21,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,05</t>
+          <t>17,64; 22,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,3</t>
+          <t>16,55; 21,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,04</t>
+          <t>17,15; 21,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 26,45</t>
+          <t>14,38; 25,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,77; 26,34</t>
+          <t>20,72; 26,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,84</t>
+          <t>18,6; 23,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 21,48</t>
+          <t>16,56; 21,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,13</t>
+          <t>14,09; 27,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,01; 23,79</t>
+          <t>19,7; 23,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,65</t>
+          <t>18,12; 21,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,1</t>
+          <t>17,42; 21,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,52</t>
+          <t>15,57; 24,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>10,96; 26,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>16,78; 31,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,8; 29,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,69; 28,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,45; 25,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,6; 29,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>14,06; 24,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>15,6; 26,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,03; 26,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 28,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,89</t>
+          <t>19,38; 26,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 25,54</t>
+          <t>18,76; 25,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 28,92</t>
+          <t>14,52; 20,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,58</t>
+          <t>14,83; 32,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 25,74</t>
+          <t>15,47; 21,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 30,4</t>
+          <t>14,66; 20,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 30,53</t>
+          <t>16,73; 22,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,17</t>
+          <t>14,74; 29,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 24,63</t>
+          <t>18,38; 22,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 25,91</t>
+          <t>17,68; 22,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 26,13</t>
+          <t>16,6; 20,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 26,69</t>
+          <t>16,5; 28,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>13,97%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 22,03</t>
+          <t>22,12; 33,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 20,66</t>
+          <t>12,68; 22,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 22,55</t>
+          <t>18,12; 29,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 30,09</t>
+          <t>4,13; 22,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 26,31</t>
+          <t>19,12; 31,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 25,29</t>
+          <t>18,51; 29,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,65</t>
+          <t>15,84; 25,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 34,37</t>
+          <t>8,21; 31,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 22,95</t>
+          <t>22,09; 30,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,7</t>
+          <t>17,08; 24,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 20,54</t>
+          <t>18,09; 25,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 28,66</t>
+          <t>8,15; 21,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 31,12</t>
+          <t>20,49; 26,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 29,82</t>
+          <t>18,62; 23,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 25,0</t>
+          <t>16,35; 21,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 31,47</t>
+          <t>13,06; 25,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,65; 33,86</t>
+          <t>17,62; 22,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 22,99</t>
+          <t>16,58; 21,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 29,84</t>
+          <t>17,21; 22,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 24,94</t>
+          <t>13,95; 25,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 30,38</t>
+          <t>19,84; 23,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 24,74</t>
+          <t>18,15; 21,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,49; 25,71</t>
+          <t>17,69; 21,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 21,72</t>
+          <t>15,12; 23,58</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>20,28%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,91%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>19,56%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19,85%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19,82%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,78%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>19,96%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 22,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 21,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 21,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,38; 25,85</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>20,72; 26,16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18,6; 23,74</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 21,22</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,09; 27,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>19,7; 23,67</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>18,12; 21,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>17,42; 21,06</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>15,57; 24,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
